--- a/pyshield/physics/buildup.xlsx
+++ b/pyshield/physics/buildup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="8130" tabRatio="992" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="8130" tabRatio="992" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Lead Glass" sheetId="1" r:id="rId1"/>
@@ -17,9 +17,8 @@
     <sheet name="Lead" sheetId="8" r:id="rId8"/>
     <sheet name="Concrete" sheetId="9" r:id="rId9"/>
     <sheet name="Concrete Barite" sheetId="10" r:id="rId10"/>
-    <sheet name="Niet gebruiken loodglas" sheetId="11" r:id="rId11"/>
-    <sheet name="Water" sheetId="12" r:id="rId12"/>
-    <sheet name="Iron" sheetId="13" r:id="rId13"/>
+    <sheet name="Water" sheetId="12" r:id="rId11"/>
+    <sheet name="Iron" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -5617,109 +5616,9 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
-  <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="12" width="8.85546875"/>
-    <col min="13" max="13" width="14"/>
-    <col min="14" max="1025" width="8.85546875"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>2.8957439513700298</v>
-      </c>
-      <c r="D1">
-        <v>5.7914879027400703</v>
-      </c>
-      <c r="E1">
-        <v>11.5829758054801</v>
-      </c>
-      <c r="F1">
-        <v>23.165951610960299</v>
-      </c>
-      <c r="G1">
-        <v>45.173605641372497</v>
-      </c>
-      <c r="H1">
-        <v>46.331903221920598</v>
-      </c>
-      <c r="I1">
-        <v>57.914879027400701</v>
-      </c>
-      <c r="J1">
-        <v>69.497854832880805</v>
-      </c>
-      <c r="K1">
-        <v>81.080830638360993</v>
-      </c>
-      <c r="L1">
-        <v>92.663806443841096</v>
-      </c>
-      <c r="M1">
-        <v>104.246782249321</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0.5</v>
-      </c>
-      <c r="B2">
-        <v>1.77</v>
-      </c>
-      <c r="C2">
-        <v>1.77</v>
-      </c>
-      <c r="D2">
-        <v>2.1</v>
-      </c>
-      <c r="E2">
-        <v>2.67</v>
-      </c>
-      <c r="F2">
-        <v>3.82</v>
-      </c>
-      <c r="G2">
-        <v>4.79</v>
-      </c>
-      <c r="H2">
-        <v>5.58</v>
-      </c>
-      <c r="I2">
-        <v>6.22</v>
-      </c>
-      <c r="J2">
-        <v>6.75</v>
-      </c>
-      <c r="K2">
-        <v>7.17</v>
-      </c>
-      <c r="L2">
-        <v>7.52</v>
-      </c>
-      <c r="M2">
-        <v>7.79</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -6432,11 +6331,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R36" sqref="R36"/>
     </sheetView>
   </sheetViews>
